--- a/ocms/target/test-classes/TestData/AgentTransferData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTransferData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
   ,IVN_VIP_VDN_NUM as 'VIP VDN'
   ,IVN_MENU_OPT as 'Option'
   ,IVN_SESS_DNIS as DNIS
-  FROM [Product_OCM].[dbo].[IVR_VDN_NUM]</t>
+  FROM [IVR_VDN_NUM]</t>
   </si>
 </sst>
 </file>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A3:A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>

--- a/ocms/target/test-classes/TestData/AgentTransferData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTransferData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:L13"/>
 </workbook>
 </file>
 
@@ -444,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -700,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/AgentTransferData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTransferData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>Menu Id</t>
   </si>
@@ -99,6 +103,15 @@
   ,IVN_MENU_OPT as 'Option'
   ,IVN_SESS_DNIS as DNIS
   FROM [IVR_VDN_NUM]</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Development</t>
   </si>
 </sst>
 </file>
@@ -151,6 +164,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -198,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,7 +469,7 @@
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -493,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -513,7 +529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -533,7 +549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -561,10 +577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +590,7 @@
     <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -624,6 +640,21 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +676,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -698,9 +729,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -719,12 +750,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/target/test-classes/TestData/AgentTransferData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentTransferData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257C3654-448D-4A76-B05C-D3B34D72975B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Menu Id</t>
   </si>
@@ -66,15 +67,6 @@
     <t>6666</t>
   </si>
   <si>
-    <t>Testing1</t>
-  </si>
-  <si>
-    <t>Testing2</t>
-  </si>
-  <si>
-    <t>Testing3</t>
-  </si>
-  <si>
     <t>Modify Reason</t>
   </si>
   <si>
@@ -94,6 +86,15 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Development</t>
   </si>
   <si>
     <t>Select IMU_MENU_ID as 'Menu ID'
@@ -102,22 +103,31 @@
   ,IVN_VIP_VDN_NUM as 'VIP VDN'
   ,IVN_MENU_OPT as 'Option'
   ,IVN_SESS_DNIS as DNIS
-  FROM [IVR_VDN_NUM]</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Development</t>
+  FROM [IVR_VDN_NUM] Order By IVN_VDN_DESC Asc;</t>
+  </si>
+  <si>
+    <t>4356</t>
+  </si>
+  <si>
+    <t>4728</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>5267</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,6 +257,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -282,6 +309,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,19 +501,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -517,19 +561,19 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -543,13 +587,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -566,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -576,21 +620,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,13 +654,13 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -636,25 +680,25 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -663,20 +707,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,10 +740,10 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -716,10 +760,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -728,24 +772,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
